--- a/NBI covariates name .xlsx
+++ b/NBI covariates name .xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qhao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guzhao\Documents\GitHub\Code_Generator_SAS\Code-Generator-SAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Diabetes complications" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="133">
   <si>
     <t>Diabetes with other ophthalmic manifestations</t>
   </si>
@@ -123,9 +124,6 @@
     <t>Any stroke</t>
   </si>
   <si>
-    <t>Ischemic stroke (w and w/o mention of cerebral infarction)</t>
-  </si>
-  <si>
     <t>Hemorrhagic stroke</t>
   </si>
   <si>
@@ -156,9 +154,6 @@
     <t>Cardiac conduction disorders</t>
   </si>
   <si>
-    <t>Other CVD</t>
-  </si>
-  <si>
     <t>Edema</t>
   </si>
   <si>
@@ -186,9 +181,6 @@
     <t>Chronic kidney disease</t>
   </si>
   <si>
-    <t>Chronic kidney disease tage 3-4</t>
-  </si>
-  <si>
     <t>Hypertensive Nephropathy</t>
   </si>
   <si>
@@ -270,9 +262,6 @@
     <t>Other_AS</t>
   </si>
   <si>
-    <t>Previous_cardiac_procedure</t>
-  </si>
-  <si>
     <t>CABG_PTCA</t>
   </si>
   <si>
@@ -340,6 +329,102 @@
   </si>
   <si>
     <t>Other_CBD</t>
+  </si>
+  <si>
+    <t>LE_CBD</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>PVD_surgery</t>
+  </si>
+  <si>
+    <t>Atrial_fibrillation</t>
+  </si>
+  <si>
+    <t>Other_cardiac_dys</t>
+  </si>
+  <si>
+    <t>Cardiac_disorders</t>
+  </si>
+  <si>
+    <t>Other_CVD</t>
+  </si>
+  <si>
+    <t>Obstructive_sleep_apnea</t>
+  </si>
+  <si>
+    <t>Renal_Dys_on_dm</t>
+  </si>
+  <si>
+    <t>Acute_Renal_Disease</t>
+  </si>
+  <si>
+    <t>Non_frailty</t>
+  </si>
+  <si>
+    <t>Sleep_disorder</t>
+  </si>
+  <si>
+    <t>Other_DTG</t>
+  </si>
+  <si>
+    <t>CKD</t>
+  </si>
+  <si>
+    <t>CKD_3_4</t>
+  </si>
+  <si>
+    <t>Hyper_Nephropathy</t>
+  </si>
+  <si>
+    <t>Miscellaneous_RI</t>
+  </si>
+  <si>
+    <t>Liver_disease</t>
+  </si>
+  <si>
+    <t>Other_AAMP</t>
+  </si>
+  <si>
+    <t>Chronic_RI</t>
+  </si>
+  <si>
+    <t>Cerebrovascular_px  </t>
+  </si>
+  <si>
+    <t>Previous_cardiac_px</t>
+  </si>
+  <si>
+    <t>Ischemic stroke (with and without mention of cerebral infarction)</t>
+  </si>
+  <si>
+    <t>Other CV disease</t>
+  </si>
+  <si>
+    <t>Chronic kidney disease stage 3-4</t>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>Overweight</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Alcohol abuse or dependence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drug abuse or dependence </t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Drug</t>
   </si>
 </sst>
 </file>
@@ -708,73 +793,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -782,7 +867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -790,47 +875,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -838,15 +923,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -854,36 +939,36 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -893,27 +978,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.36328125" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -921,7 +1073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -929,421 +1081,421 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="B31" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+      <c r="B32" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="B33" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="B34" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="B36" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="B37" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="B38" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="B40" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B43" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B46" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+      <c r="B47" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+      <c r="B50" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="B55" s="3" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
